--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200213.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200213.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Desktop\疫情大数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68EED1A-BCE2-47A8-99EF-11EDBD9CC466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053C5B09-D115-477A-8EFA-1733CBD4237E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10509,12 +10509,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="新数据表"/>
-      <sheetName val="中国各省市区县数据"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10785,8 +10783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -10983,7 +10981,9 @@
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12">
+        <v>-913</v>
+      </c>
       <c r="R2" s="12"/>
       <c r="S2" s="13" t="s">
         <v>3290</v>
@@ -11089,6 +11089,9 @@
       <c r="M4" s="13">
         <v>2791</v>
       </c>
+      <c r="Q4" s="13">
+        <v>-34</v>
+      </c>
       <c r="S4" s="13" t="s">
         <v>3290</v>
       </c>
@@ -11189,6 +11192,9 @@
       <c r="M6" s="13">
         <v>1447</v>
       </c>
+      <c r="Q6" s="13">
+        <v>-38</v>
+      </c>
       <c r="S6" s="13" t="s">
         <v>3290</v>
       </c>
@@ -11389,6 +11395,9 @@
       <c r="M10" s="13">
         <v>901</v>
       </c>
+      <c r="Q10" s="13">
+        <v>-47</v>
+      </c>
       <c r="S10" s="13" t="s">
         <v>3290</v>
       </c>
@@ -11439,6 +11448,9 @@
       <c r="M11" s="13">
         <v>1125</v>
       </c>
+      <c r="Q11" s="13">
+        <v>-9</v>
+      </c>
       <c r="S11" s="13" t="s">
         <v>3290</v>
       </c>
@@ -11488,6 +11500,9 @@
       </c>
       <c r="M12" s="13">
         <v>732</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>-2</v>
       </c>
       <c r="S12" s="13" t="s">
         <v>3290</v>
@@ -11872,6 +11887,9 @@
       </c>
       <c r="P20" s="13">
         <v>1426</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>-1043</v>
       </c>
       <c r="S20" s="13" t="s">
         <v>3290</v>
@@ -11934,7 +11952,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{CD608B5D-3F45-4EA4-9AEB-DE2D310877DB}">
           <x14:formula1>
-            <xm:f>[hubeiCaseStatistics_20200212.xlsx]中国各省市区县数据!#REF!</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F20</xm:sqref>
         </x14:dataValidation>

--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200213.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200213.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Desktop\疫情大数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053C5B09-D115-477A-8EFA-1733CBD4237E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C15A0A-2AE9-4BB4-8EBC-537F250BB63B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
     <sheet name="中国各省市区县数据" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="阿坝藏族羌族自治州">中国各省市区县数据!$C$2158:$C$2170</definedName>
     <definedName name="阿克苏地区">中国各省市区县数据!$C$2795:$C$2803</definedName>
@@ -10505,19 +10502,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -10783,8 +10767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -10984,7 +10968,9 @@
       <c r="Q2" s="12">
         <v>-913</v>
       </c>
-      <c r="R2" s="12"/>
+      <c r="R2" s="12">
+        <v>-913</v>
+      </c>
       <c r="S2" s="13" t="s">
         <v>3290</v>
       </c>
@@ -11092,6 +11078,9 @@
       <c r="Q4" s="13">
         <v>-34</v>
       </c>
+      <c r="R4" s="13">
+        <v>-34</v>
+      </c>
       <c r="S4" s="13" t="s">
         <v>3290</v>
       </c>
@@ -11195,6 +11184,9 @@
       <c r="Q6" s="13">
         <v>-38</v>
       </c>
+      <c r="R6" s="13">
+        <v>-38</v>
+      </c>
       <c r="S6" s="13" t="s">
         <v>3290</v>
       </c>
@@ -11398,6 +11390,9 @@
       <c r="Q10" s="13">
         <v>-47</v>
       </c>
+      <c r="R10" s="13">
+        <v>-47</v>
+      </c>
       <c r="S10" s="13" t="s">
         <v>3290</v>
       </c>
@@ -11451,6 +11446,9 @@
       <c r="Q11" s="13">
         <v>-9</v>
       </c>
+      <c r="R11" s="13">
+        <v>-9</v>
+      </c>
       <c r="S11" s="13" t="s">
         <v>3290</v>
       </c>
@@ -11502,6 +11500,9 @@
         <v>732</v>
       </c>
       <c r="Q12" s="13">
+        <v>-2</v>
+      </c>
+      <c r="R12" s="13">
         <v>-2</v>
       </c>
       <c r="S12" s="13" t="s">
@@ -11891,6 +11892,9 @@
       <c r="Q20" s="13">
         <v>-1043</v>
       </c>
+      <c r="R20" s="13">
+        <v>-1043</v>
+      </c>
       <c r="S20" s="13" t="s">
         <v>3290</v>
       </c>
@@ -11912,7 +11916,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
@@ -11934,6 +11938,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2:F20" xr:uid="{CD608B5D-3F45-4EA4-9AEB-DE2D310877DB}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1" xr:uid="{CD7F640F-F974-4319-B5F8-5884F38DB5B0}"/>
@@ -11943,18 +11950,12 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
           <xm:sqref>F21:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{CD608B5D-3F45-4EA4-9AEB-DE2D310877DB}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
